--- a/沥青/eta/1.沥青_数据上传.xlsx
+++ b/沥青/eta/1.沥青_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23520" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/沥青/eta/1.沥青_数据上传.xlsx
+++ b/沥青/eta/1.沥青_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23520" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1140,7 +1140,7 @@
         <v>45805</v>
       </c>
       <c r="F3" s="9" t="n">
-        <v>179.89</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.1260917160712967</v>
+        <v>0.1241165031035838</v>
       </c>
     </row>
     <row r="4">
@@ -1179,7 +1179,7 @@
         <v>45805</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>3235</v>
+        <v>3814</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.01676186985792095</v>
+        <v>0.0169464388754896</v>
       </c>
     </row>
     <row r="5">
@@ -1218,7 +1218,7 @@
         <v>45805</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>-1.7</v>
+        <v>-0.29</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.8156885242509679</v>
+        <v>2.034349941573803</v>
       </c>
     </row>
     <row r="6">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>179.89</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="E3" s="1" t="n"/>
       <c r="F3" t="inlineStr">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3235</v>
+        <v>3814</v>
       </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" t="inlineStr">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-1.7</v>
+        <v>-0.29</v>
       </c>
       <c r="O3" s="1" t="n"/>
       <c r="Q3" s="10" t="n"/>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.09</v>
+        <v>288.66</v>
       </c>
       <c r="C4" t="n">
         <v>160.75</v>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.4589181729442256</v>
+        <v>0.4431164692025221</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3509</v>
+        <v>3504</v>
       </c>
       <c r="H4" t="n">
         <v>3631</v>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0347677400968937</v>
+        <v>0.03624429223744292</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5.08</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>32.16</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5.330708661417322</v>
+        <v>15.08</v>
       </c>
       <c r="Q4" s="10" t="n"/>
       <c r="R4" s="10" t="n"/>
@@ -3412,535 +3412,535 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>213.4021301269531</v>
+        <v>90.10316467285156</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3156.602728</v>
+        <v>3805.744711</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>13.35946178436279</v>
+        <v>6.173218727111816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>208.1256866455078</v>
+        <v>49.96862030029297</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3148.811984</v>
+        <v>3849.395978</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>16.59678649902344</v>
+        <v>8.566654205322266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>187.7414855957031</v>
+        <v>63.5029182434082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3071.747558</v>
+        <v>3872.858954</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16.96028137207031</v>
+        <v>2.169098854064941</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>181.4474029541016</v>
+        <v>74.19853973388672</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3111.214979</v>
+        <v>3896.63536</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>13.41375923156738</v>
+        <v>7.212027072906494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>208.4976196289062</v>
+        <v>79.747314453125</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3044.912079</v>
+        <v>3838.621388</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-19.57773590087891</v>
+        <v>5.448035717010498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>231.7728881835938</v>
+        <v>85.04047393798828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3049.842842</v>
+        <v>3780.096073</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-10.0819263458252</v>
+        <v>11.73692226409912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>222.0077056884766</v>
+        <v>79.36483764648438</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3081.140118</v>
+        <v>3778.543532</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-18.28440093994141</v>
+        <v>-8.727437973022461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>218.3489532470703</v>
+        <v>80.33059692382812</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3139.397375</v>
+        <v>3797.501426</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-14.96910095214844</v>
+        <v>-0.7710017561912537</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>180.4928741455078</v>
+        <v>76.08242034912109</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3234.852179</v>
+        <v>3790.187996</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-13.50812339782715</v>
+        <v>-3.837468147277832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153.3440093994141</v>
+        <v>78.33099365234375</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3307.593282</v>
+        <v>3783.981735</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-1.588975667953491</v>
+        <v>-1.637950301170349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>145.6429748535156</v>
+        <v>84.21247100830078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3293.355079</v>
+        <v>3820.704691999999</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3.101653814315796</v>
+        <v>-3.7733473777771</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>146.2918090820312</v>
+        <v>70.71726989746094</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3406.138559</v>
+        <v>3809.384093</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1.099353075027466</v>
+        <v>0.6381717324256897</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>121.279655456543</v>
+        <v>59.08803558349609</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3496.958155</v>
+        <v>3789.066489</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-0.7899372577667236</v>
+        <v>-1.980832099914551</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>127.9347839355469</v>
+        <v>41.03544616699219</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3506.982928</v>
+        <v>3807.704963</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-8.361085891723633</v>
+        <v>-4.339742183685303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>151.9556427001953</v>
+        <v>46.65067291259766</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3480.022676</v>
+        <v>3811.536905</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>-2.894861221313477</v>
+        <v>-6.802554607391357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>151.3772735595703</v>
+        <v>61.80461883544922</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3446.731661</v>
+        <v>3795.191262</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-3.110233306884766</v>
+        <v>-7.242025375366211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>154.8575439453125</v>
+        <v>80.90468597412109</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3416.295274000001</v>
+        <v>3788.761136</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-4.490076065063477</v>
+        <v>-7.840692043304443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>148.3217926025391</v>
+        <v>80.65684509277344</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3426.819139</v>
+        <v>3755.870121</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-4.024242877960205</v>
+        <v>-7.038696765899658</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>151.6396636962891</v>
+        <v>76.6192626953125</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3461.253439</v>
+        <v>3710.050159</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-6.075516223907471</v>
+        <v>-7.089547157287598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>164.6994018554688</v>
+        <v>176.0074462890625</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3436.05825</v>
+          <t>2025/10/28</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3470</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>-16</v>
+          <t>2025/10/29</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>164.6994</v>
+        <v>179.0213</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -3948,25 +3948,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>179.644</v>
+        <v>164.6994</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -3974,25 +3974,25 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-17</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>262.4614</v>
+        <v>179.644</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -4000,25 +4000,25 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-77</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>304.1815</v>
+        <v>262.4614</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -4026,51 +4026,51 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-109</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>358.4663</v>
+        <v>304.1815</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3500</v>
+        <v>3470</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>-95</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>340.7197</v>
+        <v>358.4663</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -4078,25 +4078,25 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-99</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>326.0866</v>
+        <v>340.7197</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -4104,51 +4104,51 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>117</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>337.6803</v>
+        <v>326.0866</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3520</v>
+        <v>3500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>96</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.237</v>
+        <v>337.6803</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -4156,103 +4156,103 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>312.4984</v>
+        <v>339.237</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3530</v>
+        <v>3520</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/10/11</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>331.5644</v>
+        <v>312.4984</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025/10/11</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3550</v>
+        <v>3530</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>341.5644</v>
+        <v>331.5644</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/11</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3560</v>
+        <v>3550</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>263.4171</v>
+        <v>341.5644</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -4260,25 +4260,25 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>241.3117</v>
+        <v>263.4171</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -4286,25 +4286,25 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>227.9239</v>
+        <v>241.3117</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -4312,25 +4312,25 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/09/28</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>131.0959</v>
+        <v>227.9239</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025/09/28</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -4338,17 +4338,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/28</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/28</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -4364,25 +4364,25 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.75</v>
+        <v>131.0959</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -4390,25 +4390,25 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.5996</v>
+        <v>173.75</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -4416,103 +4416,103 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2025/09/24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>180.5996</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025/09/24</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3560</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>2025/09/23</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>221.734</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2025/09/23</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>3570</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2025/09/19</t>
-        </is>
-      </c>
       <c r="H42" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>2025/09/23</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>221.734</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025/09/23</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3570</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>2025/09/22</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>271.586</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2025/09/22</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>3580</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2025/09/18</t>
-        </is>
-      </c>
       <c r="H43" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>2025/09/22</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>271.586</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025/09/22</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3580</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>2025/09/19</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>273.8024</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2025/09/19</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>3590</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2025/09/17</t>
-        </is>
-      </c>
       <c r="H44" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>241.734</v>
+        <v>273.8024</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -4520,51 +4520,51 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>2025/09/18</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>241.734</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025/09/18</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3590</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>2025/09/17</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>272.1193</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2025/09/17</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>3640</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2025/09/15</t>
-        </is>
-      </c>
       <c r="H46" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>269.6286</v>
+        <v>272.1193</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -4572,25 +4572,25 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>297.9609</v>
+        <v>269.6286</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -4598,25 +4598,25 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>299.2062</v>
+        <v>297.9609</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -4624,25 +4624,25 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>327.5385</v>
+        <v>299.2062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -4650,25 +4650,25 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-21</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>294.2247</v>
+        <v>327.5385</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -4676,25 +4676,25 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>315.3961</v>
+        <v>294.2247</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -4702,25 +4702,25 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-30</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>332.52</v>
+        <v>315.3961</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -4728,51 +4728,51 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>26</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>2025/09/08</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>332.52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025/09/08</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3640</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>2025/09/05</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>418.6729</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2025/09/05</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>3700</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2025/09/03</t>
-        </is>
-      </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>368.8579</v>
+        <v>418.6729</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -4780,25 +4780,25 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>346.1298</v>
+        <v>368.8579</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -4806,25 +4806,25 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>312.816</v>
+        <v>346.1298</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -4832,25 +4832,25 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>332.742</v>
+        <v>312.816</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -4858,25 +4858,25 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>355.1588</v>
+        <v>332.742</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -4884,25 +4884,25 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>369.1692</v>
+        <v>355.1588</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -4910,25 +4910,25 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>355.1588</v>
+        <v>369.1692</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -4936,51 +4936,51 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>2025/08/27</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>355.1588</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025/08/27</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3700</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>2025/08/26</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>380.4516</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2025/08/26</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>3720</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2025/08/22</t>
-        </is>
-      </c>
       <c r="H62" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>337.7975</v>
+        <v>380.4516</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -4988,25 +4988,25 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>374.5361</v>
+        <v>337.7975</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -5014,25 +5014,25 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>377.9609</v>
+        <v>374.5361</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -5040,25 +5040,25 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>396.0188</v>
+        <v>377.9609</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -5066,25 +5066,25 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>419.9923</v>
+        <v>396.0188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -5092,51 +5092,51 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>419.9923</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3720</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>2025/08/18</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>432.1717</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2025/08/18</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>3730</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2025/08/14</t>
-        </is>
-      </c>
       <c r="H68" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>424.0768</v>
+        <v>432.1717</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -5144,25 +5144,25 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>411.0003</v>
+        <v>424.0768</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -5170,25 +5170,25 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>450.541</v>
+        <v>411.0003</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -5196,25 +5196,25 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>424.0768</v>
+        <v>450.541</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -5222,25 +5222,25 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>413.1797</v>
+        <v>424.0768</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -5248,51 +5248,51 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-24</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>2025/08/11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>413.1797</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025/08/11</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3730</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>2025/08/08</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>457.8869</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2025/08/08</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>3780</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2025/08/06</t>
-        </is>
-      </c>
       <c r="H74" t="n">
-        <v>-26</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>458.8209</v>
+        <v>457.8869</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -5300,25 +5300,25 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>24</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>413.0534</v>
+        <v>458.8209</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -5326,25 +5326,25 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>17</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>422.3937</v>
+        <v>413.0534</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -5352,25 +5352,25 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>387.5232</v>
+        <v>422.3937</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -5378,25 +5378,25 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>379.4282</v>
+        <v>387.5232</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -5404,25 +5404,25 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>331.7926</v>
+        <v>379.4282</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -5430,25 +5430,25 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>300.3469</v>
+        <v>331.7926</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -5456,25 +5456,25 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>338.3308</v>
+        <v>300.3469</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -5482,25 +5482,25 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>374.1354</v>
+        <v>338.3308</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -5508,25 +5508,25 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>409.0059</v>
+        <v>374.1354</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -5534,25 +5534,25 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>391.2593</v>
+        <v>409.0059</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -5560,25 +5560,25 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>422.0823</v>
+        <v>391.2593</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -5586,25 +5586,25 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>414.9214</v>
+        <v>422.0823</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -5612,25 +5612,25 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>407.7605</v>
+        <v>414.9214</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -5638,25 +5638,25 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>393.4387</v>
+        <v>407.7605</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -5664,25 +5664,25 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>406.5151</v>
+        <v>393.4387</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -5690,25 +5690,25 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>431.4226</v>
+        <v>406.5151</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -5716,25 +5716,25 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>410.2513</v>
+        <v>431.4226</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -5742,25 +5742,25 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>390.9479</v>
+        <v>410.2513</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -5768,25 +5768,25 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>368.2198</v>
+        <v>390.9479</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -5794,51 +5794,51 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>2025/07/11</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>368.2198</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025/07/11</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>3780</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>2025/07/10</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>463.3647</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2025/07/10</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>3830</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2025/07/08</t>
-        </is>
-      </c>
       <c r="H95" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>419.1539</v>
+        <v>463.3647</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -5846,25 +5846,25 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>424.1354</v>
+        <v>419.1539</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -5872,25 +5872,25 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>452.4677</v>
+        <v>424.1354</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -5898,51 +5898,51 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>452.4677</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3830</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>2025/07/04</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>426.1298</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2025/07/04</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>3780</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2025/07/02</t>
-        </is>
-      </c>
       <c r="H99" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>417.4122</v>
+        <v>426.1298</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -5950,25 +5950,25 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>429.8659</v>
+        <v>417.4122</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -5976,25 +5976,25 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>424.8844</v>
+        <v>429.8659</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -6002,25 +6002,25 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>444.4991</v>
+        <v>424.8844</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -6028,25 +6028,25 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>440.763</v>
+        <v>444.4991</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -6054,25 +6054,25 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>414.2987</v>
+        <v>440.763</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -6080,25 +6080,25 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>426.7525</v>
+        <v>414.2987</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -6106,25 +6106,25 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>436.0928</v>
+        <v>426.7525</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -6132,25 +6132,25 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>155.2606</v>
+        <v>436.0928</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -6158,51 +6158,51 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>-24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>2025/06/23</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>155.2606</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025/06/23</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3780</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>2025/06/20</t>
         </is>
       </c>
-      <c r="B109" t="n">
-        <v>167.366</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2025/06/20</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>3770</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>2025/06/18</t>
-        </is>
-      </c>
       <c r="H109" t="n">
-        <v>-24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>126.8913</v>
+        <v>167.366</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -6210,25 +6210,25 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>-28</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>193.5189</v>
+        <v>126.8913</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -6236,25 +6236,25 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>-20</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>215.9357</v>
+        <v>193.5189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -6262,25 +6262,25 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>-31</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>289.7242</v>
+        <v>215.9357</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -6288,51 +6288,51 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>-27</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>2025/06/16</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>289.7242</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025/06/16</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>3770</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>2025/06/13</t>
         </is>
       </c>
-      <c r="B114" t="n">
-        <v>162.3259</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2025/06/13</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>3670</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2025/06/11</t>
-        </is>
-      </c>
       <c r="H114" t="n">
-        <v>-27</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>305.2328</v>
+        <v>162.3259</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -6340,17 +6340,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>-24</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -6366,25 +6366,25 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>-31</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>325.4701</v>
+        <v>305.2328</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -6392,25 +6392,25 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>31</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>350.3776</v>
+        <v>325.4701</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -6418,51 +6418,51 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>37</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>2025/06/09</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>350.3776</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025/06/09</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
           <t>2025/06/06</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>345.0108</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>3650</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2025/06/04</t>
-        </is>
-      </c>
       <c r="H119" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>370.8523</v>
+        <v>345.0108</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -6470,25 +6470,25 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>389.8443</v>
+        <v>370.8523</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -6496,69 +6496,69 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>2025/06/04</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>389.8443</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025/06/04</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>3650</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>2025/06/03</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>311.512</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2025/06/03</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>3600</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>2025/05/29</t>
-        </is>
-      </c>
       <c r="H122" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/05/31</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>373.3955</v>
+        <v>311.512</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025/05/31</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3580</v>
+        <v>3600</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/05/31</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/05/31</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -6574,25 +6574,25 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>343.5064</v>
+        <v>373.3955</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -6600,25 +6600,25 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>301.7864</v>
+        <v>343.5064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -6626,25 +6626,25 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>350.6674</v>
+        <v>301.7864</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -6652,25 +6652,25 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>-13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>321.7124</v>
+        <v>350.6674</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -6678,25 +6678,25 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>-18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>316.4195</v>
+        <v>321.7124</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -6704,25 +6704,25 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>31</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>345.6859</v>
+        <v>316.4195</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -6730,25 +6730,25 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>20</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>314.5515</v>
+        <v>345.6859</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -6756,25 +6756,25 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>315.4855</v>
+        <v>314.5515</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -6782,51 +6782,51 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>288.6729</v>
+        <v>315.4855</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3570</v>
+        <v>3580</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>294.8998</v>
+        <v>288.6729</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -6834,25 +6834,25 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>314.2031</v>
+        <v>294.8998</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -6860,25 +6860,25 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>266.5675</v>
+        <v>314.2031</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -6886,25 +6886,25 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>260.0293</v>
+        <v>266.5675</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6912,25 +6912,25 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>293.3431</v>
+        <v>260.0293</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -6938,25 +6938,25 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>357.7913</v>
+        <v>293.3431</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -6974,7 +6974,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -6990,25 +6990,25 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>398.266</v>
+        <v>357.7913</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -7016,25 +7016,25 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>365.2635</v>
+        <v>398.266</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -7042,25 +7042,25 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>388.303</v>
+        <v>365.2635</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -7068,25 +7068,25 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>328.2136</v>
+        <v>388.303</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -7094,25 +7094,25 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>296.4565</v>
+        <v>328.2136</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -7120,25 +7120,25 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/04/27</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>264.0768</v>
+        <v>296.4565</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025/04/27</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -7146,17 +7146,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/27</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/27</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -7172,25 +7172,25 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>277.1532</v>
+        <v>264.0768</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -7198,25 +7198,25 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>283.3801</v>
+        <v>277.1532</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -7224,25 +7224,25 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>227.9609</v>
+        <v>283.3801</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -7250,25 +7250,25 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>276.8419</v>
+        <v>227.9609</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -7276,25 +7276,25 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>221.734</v>
+        <v>276.8419</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -7302,25 +7302,25 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>224.8474</v>
+        <v>221.734</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -7328,25 +7328,25 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>281.8234</v>
+        <v>224.8474</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -7364,15 +7364,15 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>319.8073</v>
+        <v>281.8234</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -7380,25 +7380,25 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>305.7968</v>
+        <v>319.8073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -7406,51 +7406,51 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>484.7518</v>
+        <v>305.7968</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>3720</v>
+        <v>3570</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>491.29</v>
+        <v>484.7518</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -7458,25 +7458,25 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>573.7962</v>
+        <v>491.29</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -7484,25 +7484,25 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>461.0897</v>
+        <v>573.7962</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -7510,25 +7510,25 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>459.2216</v>
+        <v>461.0897</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -7536,25 +7536,25 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>300.7476</v>
+        <v>459.2216</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -7562,25 +7562,25 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>158.4634</v>
+        <v>300.7476</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -7588,25 +7588,25 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>131.3765</v>
+        <v>158.4634</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -7614,25 +7614,25 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>138.8488</v>
+        <v>131.3765</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -7640,25 +7640,25 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>195.5133</v>
+        <v>138.8488</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -7666,25 +7666,25 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>184.305</v>
+        <v>195.5133</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -7692,25 +7692,25 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>-6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>173.4079</v>
+        <v>184.305</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -7718,25 +7718,25 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>205.4763</v>
+        <v>173.4079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -7744,25 +7744,25 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>207.3444</v>
+        <v>205.4763</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -7770,25 +7770,25 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>240.0355</v>
+        <v>207.3444</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -7796,25 +7796,25 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>232.5633</v>
+        <v>240.0355</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -7822,25 +7822,25 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>266.4998</v>
+        <v>232.5633</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -7848,25 +7848,25 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>260.5842</v>
+        <v>266.4998</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -7874,25 +7874,25 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>259.9615</v>
+        <v>260.5842</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -7900,51 +7900,51 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>-33</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>331.1329</v>
+        <v>259.9615</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3770</v>
+        <v>3720</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>-36</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>335.1804</v>
+        <v>331.1329</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -7962,15 +7962,15 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>315.5657</v>
+        <v>335.1804</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -7978,25 +7978,25 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>27</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>337.6711</v>
+        <v>315.5657</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -8004,25 +8004,25 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>19</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>342.3413</v>
+        <v>337.6711</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -8030,51 +8030,51 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>356.2254</v>
+        <v>342.3413</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3820</v>
+        <v>3770</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>407.2858</v>
+        <v>356.2254</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -8082,25 +8082,25 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>414.4467</v>
+        <v>407.2858</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -8108,25 +8108,25 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>376.4628</v>
+        <v>414.4467</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -8134,25 +8134,25 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>299.5608</v>
+        <v>376.4628</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -8160,51 +8160,51 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>255.2205</v>
+        <v>299.5608</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3785</v>
+        <v>3820</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>238.0966</v>
+        <v>255.2205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -8212,77 +8212,77 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>292.3259</v>
+        <v>238.0966</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3800</v>
+        <v>3785</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>324.8907</v>
+        <v>292.3259</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3850</v>
+        <v>3800</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>277.5664</v>
+        <v>324.8907</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -8290,25 +8290,25 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>265.424</v>
+        <v>277.5664</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -8316,25 +8316,25 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>224.0152</v>
+        <v>265.424</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -8342,25 +8342,25 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>-18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>231.4875</v>
+        <v>224.0152</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -8368,25 +8368,25 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>-13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>253.9042</v>
+        <v>231.4875</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -8394,25 +8394,25 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>-9</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>265.1126</v>
+        <v>253.9042</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -8420,25 +8420,25 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>266.0467</v>
+        <v>265.1126</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -8456,15 +8456,15 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>270.4055</v>
+        <v>266.0467</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -8472,25 +8472,25 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>231.7988</v>
+        <v>270.4055</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -8498,25 +8498,25 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>-21</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>214.6749</v>
+        <v>231.7988</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -8524,25 +8524,25 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>247.366</v>
+        <v>214.6749</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -8550,25 +8550,25 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>-16</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/02/08</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>268.8488</v>
+        <v>247.366</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2025/02/08</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -8576,17 +8576,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/08</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/08</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -8602,25 +8602,25 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>-18</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>276.6324</v>
+        <v>268.8488</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -8628,25 +8628,25 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>262.9332</v>
+        <v>276.6324</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -8654,25 +8654,25 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>204.4006</v>
+        <v>262.9332</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -8690,15 +8690,15 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/01/26</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>181.9838</v>
+        <v>204.4006</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2025/01/26</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -8706,17 +8706,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>24</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/26</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/26</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -8732,25 +8732,25 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>29</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>143.0658</v>
+        <v>181.9838</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -8758,25 +8758,25 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>146.8019</v>
+        <v>143.0658</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -8784,51 +8784,51 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>213.3772</v>
+        <v>146.8019</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>3920</v>
+        <v>3850</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>207.1503</v>
+        <v>213.3772</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -8836,25 +8836,25 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="H211" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>183.7995</v>
+        <v>207.1503</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -8862,25 +8862,25 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>171.9684</v>
+        <v>183.7995</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="H213" t="n">
@@ -8898,15 +8898,15 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>171.0344</v>
+        <v>171.9684</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -8914,25 +8914,25 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>195.6306</v>
+        <v>171.0344</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -8940,25 +8940,25 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>-28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>177.2613</v>
+        <v>195.6306</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -8966,51 +8966,51 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>-24</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>120.8494</v>
+        <v>177.2613</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>3820</v>
+        <v>3920</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>-23</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>176.2686</v>
+        <v>120.8494</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -9018,25 +9018,25 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="H218" t="n">
-        <v>-19</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>182.1842</v>
+        <v>176.2686</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -9044,25 +9044,25 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>-31</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>181.5615</v>
+        <v>182.1842</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -9070,17 +9070,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="H220" t="n">
-        <v>-21</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -9096,51 +9096,51 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="H221" t="n">
-        <v>-16</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>231.5615</v>
+        <v>181.5615</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>3870</v>
+        <v>3820</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>-16</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>291.9622</v>
+        <v>231.5615</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -9148,17 +9148,17 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -9174,17 +9174,17 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>-6</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -9200,25 +9200,25 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="H225" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>324.6533</v>
+        <v>291.9622</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -9226,25 +9226,25 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>329.6348</v>
+        <v>324.6533</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -9252,25 +9252,25 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>331.8142</v>
+        <v>329.6348</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -9278,25 +9278,25 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>327.4554</v>
+        <v>331.8142</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -9304,25 +9304,25 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>371.0435</v>
+        <v>327.4554</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -9330,25 +9330,25 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>358.2784</v>
+        <v>371.0435</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -9356,25 +9356,25 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>34</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>341.1545</v>
+        <v>358.2784</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -9382,25 +9382,25 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>31</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>315.0016</v>
+        <v>341.1545</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -9408,25 +9408,25 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>352.0516</v>
+        <v>315.0016</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -9434,25 +9434,25 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>-28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>304.1046</v>
+        <v>352.0516</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -9460,25 +9460,25 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>-26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>306.5954</v>
+        <v>304.1046</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -9486,25 +9486,25 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>-18</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>349.5608</v>
+        <v>306.5954</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -9512,25 +9512,25 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>-20</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>349.8722</v>
+        <v>349.5608</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -9538,25 +9538,25 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="H238" t="n">
-        <v>-23</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>356.4104</v>
+        <v>349.8722</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -9564,25 +9564,25 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>-6</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>352.0516</v>
+        <v>356.4104</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -9590,25 +9590,25 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>-20</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>390.6582</v>
+        <v>352.0516</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -9616,25 +9616,25 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>-33</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>352.0516</v>
+        <v>390.6582</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -9642,25 +9642,25 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>-39</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>324.6533</v>
+        <v>352.0516</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -9668,25 +9668,25 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="H243" t="n">
-        <v>-36</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>325.276</v>
+        <v>324.6533</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -9694,25 +9694,25 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>-33</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>353.2969</v>
+        <v>325.276</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -9720,25 +9720,25 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="H245" t="n">
-        <v>-29</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>327.4554</v>
+        <v>353.2969</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -9746,25 +9746,25 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>-29</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>340.8432</v>
+        <v>327.4554</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -9772,25 +9772,25 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>-24</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>341.1545</v>
+        <v>340.8432</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -9798,25 +9798,25 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="H248" t="n">
-        <v>-25</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>319.9831</v>
+        <v>341.1545</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -9824,25 +9824,25 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="H249" t="n">
-        <v>-25</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>333.0596</v>
+        <v>319.9831</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -9850,25 +9850,25 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="H250" t="n">
-        <v>-28</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>280.7538</v>
+        <v>333.0596</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="H251" t="n">
@@ -9886,15 +9886,15 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>306.5954</v>
+        <v>280.7538</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -9902,25 +9902,25 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>-19</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>325.276</v>
+        <v>306.5954</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -9928,25 +9928,25 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>326.8327</v>
+        <v>325.276</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -9954,25 +9954,25 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>-12</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>335.8617</v>
+        <v>326.8327</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -9980,25 +9980,25 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>-14</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>362.3259</v>
+        <v>335.8617</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -10006,25 +10006,25 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="H256" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>338.3524</v>
+        <v>362.3259</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -10032,25 +10032,25 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="H257" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>368.2414</v>
+        <v>338.3524</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -10058,25 +10058,25 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>353.6083</v>
+        <v>368.2414</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -10084,25 +10084,25 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>16</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>360.7692</v>
+        <v>353.6083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -10110,51 +10110,51 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="H260" t="n">
-        <v>25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>257.218</v>
+        <v>360.7692</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>3820</v>
+        <v>3870</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="H261" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>234.8013</v>
+        <v>257.218</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -10162,33 +10162,33 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="H262" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>105.2236</v>
+        <v>234.8013</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3720</v>
+        <v>3820</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="H263" t="n">
@@ -10198,15 +10198,15 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>96.506</v>
+        <v>105.2236</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -10214,25 +10214,25 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>170.6058</v>
+        <v>96.506</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -10240,25 +10240,25 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>152.2365</v>
+        <v>170.6058</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -10266,25 +10266,25 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>172.7852</v>
+        <v>152.2365</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -10292,25 +10292,25 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>195.5133</v>
+        <v>172.7852</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -10318,25 +10318,25 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>245.6397</v>
+        <v>195.5133</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -10344,25 +10344,25 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="H269" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>217.3074</v>
+        <v>245.6397</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -10370,25 +10370,25 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>-33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>91.83580000000001</v>
+        <v>217.3074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -10396,25 +10396,25 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="H271" t="n">
-        <v>-38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>135.7353</v>
+        <v>91.83580000000001</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -10422,25 +10422,25 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="H272" t="n">
-        <v>56</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>118.3001</v>
+        <v>135.7353</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -10448,25 +10448,25 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>61</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>94.3266</v>
+        <v>118.3001</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -10474,25 +10474,25 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>149.7458</v>
+        <v>94.3266</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -10500,25 +10500,25 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>174.9646</v>
+        <v>149.7458</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -10526,25 +10526,25 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>141.9622</v>
+        <v>174.9646</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -10552,25 +10552,25 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>149.4344</v>
+        <v>141.9622</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -10578,25 +10578,25 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>147.8777</v>
+        <v>149.4344</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -10604,25 +10604,25 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>48.8704</v>
+        <v>147.8777</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -10630,25 +10630,25 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="H280" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.3007</v>
+        <v>48.8704</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -10656,17 +10656,17 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="H281" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -10682,25 +10682,25 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="H282" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>8.084300000000001</v>
+        <v>0.3007</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -10708,25 +10708,25 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="H283" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>64.74890000000001</v>
+        <v>8.084300000000001</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -10734,25 +10734,25 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="H284" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>44.8229</v>
+        <v>64.74890000000001</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -10760,69 +10760,69 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="H285" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>140.5318</v>
+        <v>44.8229</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3670</v>
+        <v>3720</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024/09/29</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>218.2414</v>
+        <v>140.5318</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2024/09/29</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3720</v>
+        <v>3670</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/09/29</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/09/29</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -10838,25 +10838,25 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>218.8641</v>
+        <v>218.2414</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -10864,25 +10864,25 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>148.5004</v>
+        <v>218.8641</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -10890,25 +10890,25 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>130.7538</v>
+        <v>148.5004</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -10916,25 +10916,25 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>161.5769</v>
+        <v>130.7538</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -10942,51 +10942,51 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>-96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>197.8777</v>
+        <v>161.5769</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3770</v>
+        <v>3720</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>-103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>178.8858</v>
+        <v>197.8777</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -10994,25 +10994,25 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>-89</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>240.2205</v>
+        <v>178.8858</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -11020,25 +11020,25 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="H295" t="n">
-        <v>-77</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>248.6268</v>
+        <v>240.2205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -11046,17 +11046,17 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>68</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -11072,17 +11072,17 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>87</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -11098,25 +11098,25 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>305.9141</v>
+        <v>248.6268</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -11124,25 +11124,25 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>344.2094</v>
+        <v>305.9141</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -11150,11 +11150,11 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="H300" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
